--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efnb3-Ephb4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efnb3-Ephb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,12 +92,6 @@
   </si>
   <si>
     <t>Ephb4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.967190844127466</v>
+        <v>0.08736233333333333</v>
       </c>
       <c r="H2">
-        <v>0.967190844127466</v>
+        <v>0.262087</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.05767651158852535</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.07409173752753136</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.5358502721405</v>
+        <v>34.52018166666667</v>
       </c>
       <c r="N2">
-        <v>32.5358502721405</v>
+        <v>103.560545</v>
       </c>
       <c r="O2">
-        <v>0.7783084689622326</v>
+        <v>0.7811694070883366</v>
       </c>
       <c r="P2">
-        <v>0.7783084689622326</v>
+        <v>0.8076479349223241</v>
       </c>
       <c r="Q2">
-        <v>31.46837648911642</v>
+        <v>3.015763617490555</v>
       </c>
       <c r="R2">
-        <v>31.46837648911642</v>
+        <v>27.141872557415</v>
       </c>
       <c r="S2">
-        <v>0.7783084689622326</v>
+        <v>0.04505512636053192</v>
       </c>
       <c r="T2">
-        <v>0.7783084689622326</v>
+        <v>0.05984003880891756</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.967190844127466</v>
+        <v>0.08736233333333333</v>
       </c>
       <c r="H3">
-        <v>0.967190844127466</v>
+        <v>0.262087</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.05767651158852535</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.07409173752753136</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.96103682720328</v>
+        <v>5.323898</v>
       </c>
       <c r="N3">
-        <v>4.96103682720328</v>
+        <v>15.971694</v>
       </c>
       <c r="O3">
-        <v>0.1186757667357501</v>
+        <v>0.1204763718863815</v>
       </c>
       <c r="P3">
-        <v>0.1186757667357501</v>
+        <v>0.1245600404701547</v>
       </c>
       <c r="Q3">
-        <v>4.798269396650186</v>
+        <v>0.4651081517086667</v>
       </c>
       <c r="R3">
-        <v>4.798269396650186</v>
+        <v>4.185973365378</v>
       </c>
       <c r="S3">
-        <v>0.1186757667357501</v>
+        <v>0.00694865685924837</v>
       </c>
       <c r="T3">
-        <v>0.1186757667357501</v>
+        <v>0.009228869824933384</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,619 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.08736233333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.262087</v>
+      </c>
+      <c r="I4">
+        <v>0.05767651158852535</v>
+      </c>
+      <c r="J4">
+        <v>0.07409173752753136</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>4.3463115</v>
+      </c>
+      <c r="N4">
+        <v>8.692622999999999</v>
+      </c>
+      <c r="O4">
+        <v>0.09835422102528193</v>
+      </c>
+      <c r="P4">
+        <v>0.06779202460752111</v>
+      </c>
+      <c r="Q4">
+        <v>0.3797039140335</v>
+      </c>
+      <c r="R4">
+        <v>2.278223484201</v>
+      </c>
+      <c r="S4">
+        <v>0.005672728368745057</v>
+      </c>
+      <c r="T4">
+        <v>0.005022828893680401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.3509106666666666</v>
+      </c>
+      <c r="H5">
+        <v>1.052732</v>
+      </c>
+      <c r="I5">
+        <v>0.2316708169333521</v>
+      </c>
+      <c r="J5">
+        <v>0.2976063026049867</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>34.52018166666667</v>
+      </c>
+      <c r="N5">
+        <v>103.560545</v>
+      </c>
+      <c r="O5">
+        <v>0.7811694070883366</v>
+      </c>
+      <c r="P5">
+        <v>0.8076479349223241</v>
+      </c>
+      <c r="Q5">
+        <v>12.11349996210444</v>
+      </c>
+      <c r="R5">
+        <v>109.02149965894</v>
+      </c>
+      <c r="S5">
+        <v>0.1809741547034973</v>
+      </c>
+      <c r="T5">
+        <v>0.2403611157187858</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.3509106666666666</v>
+      </c>
+      <c r="H6">
+        <v>1.052732</v>
+      </c>
+      <c r="I6">
+        <v>0.2316708169333521</v>
+      </c>
+      <c r="J6">
+        <v>0.2976063026049867</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>5.323898</v>
+      </c>
+      <c r="N6">
+        <v>15.971694</v>
+      </c>
+      <c r="O6">
+        <v>0.1204763718863815</v>
+      </c>
+      <c r="P6">
+        <v>0.1245600404701547</v>
+      </c>
+      <c r="Q6">
+        <v>1.868212596445333</v>
+      </c>
+      <c r="R6">
+        <v>16.813913368008</v>
+      </c>
+      <c r="S6">
+        <v>0.02791085949608433</v>
+      </c>
+      <c r="T6">
+        <v>0.03706985309665024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.3509106666666666</v>
+      </c>
+      <c r="H7">
+        <v>1.052732</v>
+      </c>
+      <c r="I7">
+        <v>0.2316708169333521</v>
+      </c>
+      <c r="J7">
+        <v>0.2976063026049867</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4.3463115</v>
+      </c>
+      <c r="N7">
+        <v>8.692622999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.09835422102528193</v>
+      </c>
+      <c r="P7">
+        <v>0.06779202460752111</v>
+      </c>
+      <c r="Q7">
+        <v>1.525167066006</v>
+      </c>
+      <c r="R7">
+        <v>9.151002396035999</v>
+      </c>
+      <c r="S7">
+        <v>0.02278580273377055</v>
+      </c>
+      <c r="T7">
+        <v>0.02017533378955063</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.967190844127466</v>
-      </c>
-      <c r="H4">
-        <v>0.967190844127466</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>4.30639729189841</v>
-      </c>
-      <c r="N4">
-        <v>4.30639729189841</v>
-      </c>
-      <c r="O4">
-        <v>0.1030157643020174</v>
-      </c>
-      <c r="P4">
-        <v>0.1030157643020174</v>
-      </c>
-      <c r="Q4">
-        <v>4.165108031899456</v>
-      </c>
-      <c r="R4">
-        <v>4.165108031899456</v>
-      </c>
-      <c r="S4">
-        <v>0.1030157643020174</v>
-      </c>
-      <c r="T4">
-        <v>0.1030157643020174</v>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.06966766666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.209003</v>
+      </c>
+      <c r="I8">
+        <v>0.0459945130873968</v>
+      </c>
+      <c r="J8">
+        <v>0.05908494285663399</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>34.52018166666667</v>
+      </c>
+      <c r="N8">
+        <v>103.560545</v>
+      </c>
+      <c r="O8">
+        <v>0.7811694070883366</v>
+      </c>
+      <c r="P8">
+        <v>0.8076479349223241</v>
+      </c>
+      <c r="Q8">
+        <v>2.404940509626111</v>
+      </c>
+      <c r="R8">
+        <v>21.644464586635</v>
+      </c>
+      <c r="S8">
+        <v>0.0359295065177985</v>
+      </c>
+      <c r="T8">
+        <v>0.04771983208316397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.06966766666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.209003</v>
+      </c>
+      <c r="I9">
+        <v>0.0459945130873968</v>
+      </c>
+      <c r="J9">
+        <v>0.05908494285663399</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>5.323898</v>
+      </c>
+      <c r="N9">
+        <v>15.971694</v>
+      </c>
+      <c r="O9">
+        <v>0.1204763718863815</v>
+      </c>
+      <c r="P9">
+        <v>0.1245600404701547</v>
+      </c>
+      <c r="Q9">
+        <v>0.3709035512313333</v>
+      </c>
+      <c r="R9">
+        <v>3.338131961082</v>
+      </c>
+      <c r="S9">
+        <v>0.005541252063450256</v>
+      </c>
+      <c r="T9">
+        <v>0.007359622873399107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.06966766666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.209003</v>
+      </c>
+      <c r="I10">
+        <v>0.0459945130873968</v>
+      </c>
+      <c r="J10">
+        <v>0.05908494285663399</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.3463115</v>
+      </c>
+      <c r="N10">
+        <v>8.692622999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.09835422102528193</v>
+      </c>
+      <c r="P10">
+        <v>0.06779202460752111</v>
+      </c>
+      <c r="Q10">
+        <v>0.3027973808115</v>
+      </c>
+      <c r="R10">
+        <v>1.816784284869</v>
+      </c>
+      <c r="S10">
+        <v>0.004523754506148048</v>
+      </c>
+      <c r="T10">
+        <v>0.00400548790007091</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.0067545</v>
+      </c>
+      <c r="H11">
+        <v>2.013509</v>
+      </c>
+      <c r="I11">
+        <v>0.6646581583907257</v>
+      </c>
+      <c r="J11">
+        <v>0.569217017010848</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>34.52018166666667</v>
+      </c>
+      <c r="N11">
+        <v>103.560545</v>
+      </c>
+      <c r="O11">
+        <v>0.7811694070883366</v>
+      </c>
+      <c r="P11">
+        <v>0.8076479349223241</v>
+      </c>
+      <c r="Q11">
+        <v>34.75334823373417</v>
+      </c>
+      <c r="R11">
+        <v>208.520089402405</v>
+      </c>
+      <c r="S11">
+        <v>0.5192106195065089</v>
+      </c>
+      <c r="T11">
+        <v>0.4597269483114568</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.0067545</v>
+      </c>
+      <c r="H12">
+        <v>2.013509</v>
+      </c>
+      <c r="I12">
+        <v>0.6646581583907257</v>
+      </c>
+      <c r="J12">
+        <v>0.569217017010848</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>5.323898</v>
+      </c>
+      <c r="N12">
+        <v>15.971694</v>
+      </c>
+      <c r="O12">
+        <v>0.1204763718863815</v>
+      </c>
+      <c r="P12">
+        <v>0.1245600404701547</v>
+      </c>
+      <c r="Q12">
+        <v>5.359858269041</v>
+      </c>
+      <c r="R12">
+        <v>32.159149614246</v>
+      </c>
+      <c r="S12">
+        <v>0.08007560346759851</v>
+      </c>
+      <c r="T12">
+        <v>0.07090169467517195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.0067545</v>
+      </c>
+      <c r="H13">
+        <v>2.013509</v>
+      </c>
+      <c r="I13">
+        <v>0.6646581583907257</v>
+      </c>
+      <c r="J13">
+        <v>0.569217017010848</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.3463115</v>
+      </c>
+      <c r="N13">
+        <v>8.692622999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.09835422102528193</v>
+      </c>
+      <c r="P13">
+        <v>0.06779202460752111</v>
+      </c>
+      <c r="Q13">
+        <v>4.37566866102675</v>
+      </c>
+      <c r="R13">
+        <v>17.502674644107</v>
+      </c>
+      <c r="S13">
+        <v>0.06537193541661829</v>
+      </c>
+      <c r="T13">
+        <v>0.03858837402421917</v>
       </c>
     </row>
   </sheetData>
